--- a/testFile/case/productCase.xlsx
+++ b/testFile/case/productCase.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="getProductInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="aaa" sheetId="2" r:id="rId2"/>
+    <sheet name="bbb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -104,8 +106,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,14 +126,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,59 +164,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -207,15 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,24 +186,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +250,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +271,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,169 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +462,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,26 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -546,6 +537,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,6 +772,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1025,16 +1032,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1124,7 +1130,6 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4"/>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1188,7 +1193,6 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,4 +1210,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>